--- a/A02QBAV_PRICING REPORT.xlsx
+++ b/A02QBAV_PRICING REPORT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ypabl\Desktop\ARAMIS 2023\A02QBAV (aproved)\ATT\att corrections\relocation pfp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390550E2-1A82-43D7-9DDD-9F2DC9ECF9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6252FCB-F653-43B3-B70D-D412DA768644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="915" windowWidth="21600" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="140">
   <si>
     <t>Pricing Report</t>
   </si>
@@ -159,9 +159,6 @@
     <t>EVOLV8/10OTIP</t>
   </si>
   <si>
-    <t>GUY-SIDEWALK</t>
-  </si>
-  <si>
     <t>5BQ2MR-288</t>
   </si>
   <si>
@@ -207,9 +204,6 @@
     <t>0.00 HRS</t>
   </si>
   <si>
-    <t>0.40 HRS</t>
-  </si>
-  <si>
     <t>**** DETAILED PRICING SUMMARY ****</t>
   </si>
   <si>
@@ -390,15 +384,6 @@
     <t>14.00 HRS</t>
   </si>
   <si>
-    <t>Generated: 06/14/2024, 01:11 PM</t>
-  </si>
-  <si>
-    <t>RQST By: MOREJON ANNIET</t>
-  </si>
-  <si>
-    <t>Pricing Date: 06/14/2024</t>
-  </si>
-  <si>
     <t>INNERDUCT-1</t>
   </si>
   <si>
@@ -411,31 +396,55 @@
     <t>29.27 HRS</t>
   </si>
   <si>
-    <t>45.93 HRS</t>
-  </si>
-  <si>
     <t>TREE</t>
   </si>
   <si>
-    <t>285.59 HRS</t>
-  </si>
-  <si>
-    <t>140.52 HRS</t>
-  </si>
-  <si>
     <t>145.07 HRS</t>
   </si>
   <si>
-    <t>37.73 HRS</t>
-  </si>
-  <si>
     <t>33.79 HRS</t>
   </si>
   <si>
     <t>19.79 HRS</t>
   </si>
   <si>
-    <t>6.16 HRS</t>
+    <t>RQST By: ARAMIS</t>
+  </si>
+  <si>
+    <t>318.23 HRS</t>
+  </si>
+  <si>
+    <t>173.16 HRS</t>
+  </si>
+  <si>
+    <t>43.48 HRS</t>
+  </si>
+  <si>
+    <t>5.36 HRS</t>
+  </si>
+  <si>
+    <t>FRC: 8645C</t>
+  </si>
+  <si>
+    <t>0.46 HRS</t>
+  </si>
+  <si>
+    <t>0.69 HRS</t>
+  </si>
+  <si>
+    <t>8645C</t>
+  </si>
+  <si>
+    <t>CONC-SDWLK-4IN</t>
+  </si>
+  <si>
+    <t>Generated: 07/29/2024, 09:00 PM</t>
+  </si>
+  <si>
+    <t>Pricing Date: 07/29/2024</t>
+  </si>
+  <si>
+    <t>39.60 HRS</t>
   </si>
 </sst>
 </file>
@@ -506,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -530,12 +539,6 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -548,9 +551,12 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -863,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G292"/>
+  <dimension ref="A1:G330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G291"/>
+      <selection sqref="A1:G330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -881,12 +887,12 @@
     </row>
     <row r="3" spans="1:7" ht="85.5">
       <c r="A3" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="71.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42.75">
       <c r="A4" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85.5">
@@ -916,33 +922,33 @@
     </row>
     <row r="10" spans="1:7" ht="57">
       <c r="A10" s="5" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="42.75">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="42.75">
       <c r="A12" s="6"/>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="7">
@@ -952,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>13</v>
@@ -963,7 +969,7 @@
     </row>
     <row r="13" spans="1:7" ht="42.75">
       <c r="A13" s="6"/>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="7">
@@ -984,7 +990,7 @@
     </row>
     <row r="14" spans="1:7" ht="42.75">
       <c r="A14" s="6"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="7">
@@ -1005,7 +1011,7 @@
     </row>
     <row r="15" spans="1:7" ht="42.75">
       <c r="A15" s="6"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="7">
@@ -1015,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>13</v>
@@ -1024,10 +1030,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.5">
+    <row r="16" spans="1:7" ht="42.75">
       <c r="A16" s="6"/>
-      <c r="B16" s="10" t="s">
-        <v>124</v>
+      <c r="B16" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1036,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="7">
-        <v>987</v>
+        <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>13</v>
@@ -1045,10 +1051,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="42.75">
+    <row r="17" spans="1:7" ht="28.5">
       <c r="A17" s="6"/>
-      <c r="B17" s="10" t="s">
-        <v>17</v>
+      <c r="B17" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1057,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="7">
-        <v>687</v>
+        <v>987</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>13</v>
@@ -1068,28 +1074,28 @@
     </row>
     <row r="18" spans="1:7" ht="42.75">
       <c r="A18" s="6"/>
-      <c r="B18" s="10" t="s">
-        <v>18</v>
+      <c r="B18" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
       </c>
       <c r="D18" s="7">
-        <v>11.208</v>
+        <v>0</v>
       </c>
       <c r="E18" s="7">
-        <v>477</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.32</v>
+        <v>687</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G18" s="6">
-        <v>152.63999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="28.5">
       <c r="A19" s="6"/>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="7">
@@ -1110,544 +1116,544 @@
     </row>
     <row r="20" spans="1:7" ht="42.75">
       <c r="A20" s="6"/>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>13.488</v>
+      </c>
+      <c r="E20" s="7">
+        <v>572</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="G20" s="6">
+        <v>205.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="42.75">
+      <c r="A21" s="6"/>
+      <c r="B21" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="7">
         <v>146.304</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E21" s="7">
         <v>2062</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F21" s="7">
         <v>0.65</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G21" s="9">
         <v>1340.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="28.5">
-      <c r="A21" s="6"/>
-      <c r="B21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1.2E-2</v>
-      </c>
-      <c r="E21" s="7">
-        <v>3</v>
-      </c>
-      <c r="F21" s="7">
-        <v>107.39</v>
-      </c>
-      <c r="G21" s="6">
-        <v>322.17</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="28.5">
       <c r="A22" s="6"/>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E22" s="7">
+        <v>3</v>
+      </c>
+      <c r="F22" s="7">
+        <v>107.39</v>
+      </c>
+      <c r="G22" s="6">
+        <v>322.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="28.5">
+      <c r="A23" s="6"/>
+      <c r="B23" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="7">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="7">
         <v>2</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="7">
         <v>133.51</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G23" s="6">
         <v>267.02</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="6"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="6"/>
-    </row>
-    <row r="24" spans="1:7" ht="28.5">
+    <row r="24" spans="1:7">
       <c r="A24" s="6"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" ht="28.5">
+      <c r="A25" s="6"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="6"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>192.88399999999999</v>
+      <c r="D25" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
-      <c r="G25" s="11">
-        <v>2307.58</v>
+      <c r="G25" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="6"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>195.16399999999999</v>
+      </c>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:7" ht="71.25">
+      <c r="G26" s="9">
+        <v>2360.86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="6"/>
-      <c r="B27" s="10" t="s">
-        <v>24</v>
-      </c>
+      <c r="B27" s="8"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="F27" s="7">
-        <v>32.21</v>
-      </c>
-      <c r="G27" s="11">
-        <v>1067.17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="42.75">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" ht="71.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="10" t="s">
-        <v>25</v>
+      <c r="B28" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="7">
-        <v>3374.75</v>
+      <c r="E28" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="F28" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="G28" s="6">
-        <v>354.35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>32.21</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1067.17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="42.75">
       <c r="A29" s="6"/>
-      <c r="B29" s="10"/>
+      <c r="B29" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="1:7" ht="42.75">
-      <c r="A30" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>27</v>
-      </c>
+      <c r="E29" s="7">
+        <v>3428.03</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="G29" s="6">
+        <v>359.94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="6"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="11">
-        <v>3729.09</v>
-      </c>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" ht="42.75">
-      <c r="A31" s="6"/>
-      <c r="B31" s="10" t="s">
-        <v>28</v>
+      <c r="A31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F31" s="7">
-        <v>145.34</v>
-      </c>
-      <c r="G31" s="6">
-        <v>561.64</v>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="9">
+        <v>3787.97</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="42.75">
       <c r="A32" s="6"/>
-      <c r="B32" s="10" t="s">
-        <v>29</v>
+      <c r="B32" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F32" s="7">
-        <v>145.34</v>
-      </c>
-      <c r="G32" s="11">
-        <v>4254.08</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>163.96</v>
+      </c>
+      <c r="G32" s="6">
+        <v>633.59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="42.75">
       <c r="A33" s="6"/>
-      <c r="B33" s="10"/>
+      <c r="B33" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="1:7" ht="28.5">
-      <c r="A34" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="E33" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F33" s="7">
+        <v>163.96</v>
+      </c>
+      <c r="G33" s="9">
+        <v>4799.08</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="6"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="11">
-        <v>4815.71</v>
-      </c>
+      <c r="G34" s="6"/>
     </row>
     <row r="35" spans="1:7" ht="28.5">
-      <c r="A35" s="6"/>
-      <c r="B35" s="10" t="s">
-        <v>31</v>
+      <c r="A35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
-      <c r="G35" s="11">
-        <v>40129.370000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="G35" s="9">
+        <v>5432.67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="28.5">
       <c r="A36" s="6"/>
-      <c r="B36" s="10"/>
+      <c r="B36" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
-      <c r="G36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" ht="42.75">
-      <c r="A37" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="G36" s="9">
+        <v>41371.629999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="6"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="11">
-        <v>40129.370000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="28.5">
-      <c r="A38" s="6"/>
-      <c r="B38" s="10" t="s">
-        <v>33</v>
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" ht="42.75">
+      <c r="A38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F38" s="7">
-        <v>109.9</v>
-      </c>
-      <c r="G38" s="11">
-        <v>5047.33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="9">
+        <v>41371.629999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="28.5">
       <c r="A39" s="6"/>
-      <c r="B39" s="10"/>
+      <c r="B39" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" ht="42.75">
-      <c r="A40" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="E39" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F39" s="7">
+        <v>125.64</v>
+      </c>
+      <c r="G39" s="9">
+        <v>4975.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="6"/>
+      <c r="B40" s="8"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="11">
-        <v>5047.33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="85.5">
-      <c r="A41" s="6"/>
-      <c r="B41" s="10" t="s">
-        <v>35</v>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" ht="42.75">
+      <c r="A41" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="11">
-        <v>53721.51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="57">
+      <c r="G41" s="9">
+        <v>4975.3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="85.5">
       <c r="A42" s="6"/>
-      <c r="B42" s="10" t="s">
-        <v>36</v>
+      <c r="B42" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="11">
-        <v>9520</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="G42" s="9">
+        <v>55567.57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="57">
       <c r="A43" s="6"/>
-      <c r="B43" s="10"/>
+      <c r="B43" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" ht="28.5">
-      <c r="A44" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="G43" s="9">
+        <v>9520</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="6"/>
+      <c r="B44" s="8"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="11">
-        <v>63241.51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="6"/>
-      <c r="B45" s="10"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" ht="28.5">
+      <c r="A45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
-      <c r="G45" s="6"/>
-    </row>
-    <row r="46" spans="1:7" ht="28.5">
+      <c r="G45" s="9">
+        <v>65087.57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="6"/>
-      <c r="B46" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="B46" s="8"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="7">
-        <v>33.130000000000003</v>
-      </c>
+      <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:7" ht="28.5">
       <c r="A47" s="6"/>
-      <c r="B47" s="10" t="s">
-        <v>39</v>
+      <c r="B47" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7">
-        <v>45.93</v>
+        <v>33.130000000000003</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="1:7" ht="42.75">
+    <row r="48" spans="1:7" ht="28.5">
       <c r="A48" s="6"/>
-      <c r="B48" s="10" t="s">
-        <v>40</v>
+      <c r="B48" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7">
-        <v>0</v>
+        <v>39.6</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="1:7" ht="85.5">
-      <c r="A49" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="71.25">
+    <row r="49" spans="1:7" ht="42.75">
+      <c r="A49" s="6"/>
+      <c r="B49" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7">
+        <v>0</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" ht="85.5">
       <c r="A50" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="85.5">
-      <c r="A51" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="42.75">
+      <c r="A51" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="85.5">
+      <c r="A52" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="4" t="s">
+    <row r="53" spans="1:7">
+      <c r="A53" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="71.25">
-      <c r="A53" s="3" t="s">
+    <row r="54" spans="1:7" ht="71.25">
+      <c r="A54" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="28.5">
-      <c r="A54" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="28.5">
       <c r="A55" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="28.5">
+      <c r="A56" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="57">
-      <c r="A56" s="5" t="s">
+    <row r="57" spans="1:7" ht="57">
+      <c r="A57" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="42.75">
+      <c r="A58" s="18"/>
+      <c r="B58" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="6"/>
+      <c r="B59" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="42.75">
-      <c r="A57" s="19"/>
-      <c r="B57" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="21" t="s">
+      <c r="C59" s="7">
+        <v>0</v>
+      </c>
+      <c r="D59" s="7">
+        <v>0</v>
+      </c>
+      <c r="E59" s="7">
+        <v>20</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="28.5">
+      <c r="A60" s="6"/>
+      <c r="B60" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="7">
+        <v>0</v>
+      </c>
+      <c r="D60" s="7">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E60" s="7">
         <v>8</v>
       </c>
-      <c r="E57" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="6"/>
-      <c r="B58" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="7">
-        <v>0</v>
-      </c>
-      <c r="D58" s="7">
-        <v>0</v>
-      </c>
-      <c r="E58" s="7">
-        <v>20</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G58" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="28.5">
-      <c r="A59" s="6"/>
-      <c r="B59" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C59" s="7">
-        <v>0</v>
-      </c>
-      <c r="D59" s="7">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="E59" s="7">
-        <v>8</v>
-      </c>
-      <c r="F59" s="7">
+      <c r="F60" s="7">
         <v>133.51</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G60" s="9">
         <v>1068.08</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="42.75">
-      <c r="A60" s="6"/>
-      <c r="B60" s="10" t="s">
+    <row r="61" spans="1:7" ht="42.75">
+      <c r="A61" s="6"/>
+      <c r="B61" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="7">
-        <v>0</v>
-      </c>
-      <c r="D60" s="7">
+      <c r="C61" s="7">
+        <v>0</v>
+      </c>
+      <c r="D61" s="7">
         <v>0.14399999999999999</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E61" s="7">
         <v>12</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="28.5">
-      <c r="A61" s="6"/>
-      <c r="B61" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C61" s="7">
-        <v>0</v>
-      </c>
-      <c r="D61" s="7">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="E61" s="7">
-        <v>8</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>13</v>
@@ -1658,50 +1664,50 @@
     </row>
     <row r="62" spans="1:7" ht="28.5">
       <c r="A62" s="6"/>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="7">
+        <v>0</v>
+      </c>
+      <c r="D62" s="7">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E62" s="7">
+        <v>8</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="28.5">
+      <c r="A63" s="6"/>
+      <c r="B63" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="7">
-        <v>0</v>
-      </c>
-      <c r="D62" s="7">
+      <c r="C63" s="7">
+        <v>0</v>
+      </c>
+      <c r="D63" s="7">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E63" s="7">
         <v>9</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F63" s="7">
         <v>107.39</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G63" s="6">
         <v>966.51</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="42.75">
-      <c r="A63" s="6"/>
-      <c r="B63" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63" s="7">
-        <v>0</v>
-      </c>
-      <c r="D63" s="7">
-        <v>0</v>
-      </c>
-      <c r="E63" s="7">
-        <v>10</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="6">
-        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="28.5">
       <c r="A64" s="6"/>
-      <c r="B64" s="10" t="s">
-        <v>46</v>
+      <c r="B64" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="C64" s="7">
         <v>0</v>
@@ -1710,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="7">
-        <v>759</v>
+        <v>467</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>13</v>
@@ -1721,49 +1727,49 @@
     </row>
     <row r="65" spans="1:7" ht="28.5">
       <c r="A65" s="6"/>
-      <c r="B65" s="10" t="s">
-        <v>45</v>
+      <c r="B65" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C65" s="7">
         <v>0</v>
       </c>
       <c r="D65" s="7">
-        <v>77.471999999999994</v>
+        <v>0</v>
       </c>
       <c r="E65" s="7">
-        <v>279</v>
-      </c>
-      <c r="F65" s="7">
-        <v>1.37</v>
+        <v>1135</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="G65" s="6">
-        <v>382.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="28.5">
       <c r="A66" s="6"/>
-      <c r="B66" s="10" t="s">
-        <v>47</v>
+      <c r="B66" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="C66" s="7">
         <v>0</v>
       </c>
       <c r="D66" s="7">
-        <v>0</v>
+        <v>77.471999999999994</v>
       </c>
       <c r="E66" s="7">
-        <v>965</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>13</v>
+        <v>279</v>
+      </c>
+      <c r="F66" s="7">
+        <v>1.37</v>
       </c>
       <c r="G66" s="6">
-        <v>0</v>
+        <v>382.23</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="42.75">
       <c r="A67" s="6"/>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C67" s="7">
@@ -1784,8 +1790,8 @@
     </row>
     <row r="68" spans="1:7" ht="28.5">
       <c r="A68" s="6"/>
-      <c r="B68" s="10" t="s">
-        <v>48</v>
+      <c r="B68" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C68" s="7">
         <v>0</v>
@@ -1805,8 +1811,8 @@
     </row>
     <row r="69" spans="1:7" ht="42.75">
       <c r="A69" s="6"/>
-      <c r="B69" s="10" t="s">
-        <v>49</v>
+      <c r="B69" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C69" s="7">
         <v>0</v>
@@ -1826,8 +1832,8 @@
     </row>
     <row r="70" spans="1:7" ht="42.75">
       <c r="A70" s="6"/>
-      <c r="B70" s="10" t="s">
-        <v>50</v>
+      <c r="B70" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="C70" s="7">
         <v>0</v>
@@ -1841,14 +1847,14 @@
       <c r="F70" s="7">
         <v>1.2</v>
       </c>
-      <c r="G70" s="11">
+      <c r="G70" s="9">
         <v>1268.4000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="42.75">
       <c r="A71" s="6"/>
-      <c r="B71" s="10" t="s">
-        <v>51</v>
+      <c r="B71" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C71" s="7">
         <v>0</v>
@@ -1862,14 +1868,14 @@
       <c r="F71" s="7">
         <v>1.8</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G71" s="9">
         <v>1020.6</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="42.75">
       <c r="A72" s="6"/>
-      <c r="B72" s="10" t="s">
-        <v>52</v>
+      <c r="B72" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C72" s="7">
         <v>0</v>
@@ -1889,8 +1895,8 @@
     </row>
     <row r="73" spans="1:7" ht="42.75">
       <c r="A73" s="6"/>
-      <c r="B73" s="10" t="s">
-        <v>53</v>
+      <c r="B73" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C73" s="7">
         <v>0</v>
@@ -1910,7 +1916,7 @@
     </row>
     <row r="74" spans="1:7" ht="28.5">
       <c r="A74" s="6"/>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C74" s="7">
@@ -1931,8 +1937,8 @@
     </row>
     <row r="75" spans="1:7" ht="28.5">
       <c r="A75" s="6"/>
-      <c r="B75" s="10" t="s">
-        <v>54</v>
+      <c r="B75" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C75" s="7">
         <v>0</v>
@@ -1946,13 +1952,13 @@
       <c r="F75" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G75" s="9">
         <v>2959</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="6"/>
-      <c r="B76" s="10"/>
+      <c r="B76" s="8"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
@@ -1961,7 +1967,7 @@
     </row>
     <row r="77" spans="1:7" ht="28.5">
       <c r="A77" s="6"/>
-      <c r="B77" s="10"/>
+      <c r="B77" s="8"/>
       <c r="C77" s="7" t="s">
         <v>23</v>
       </c>
@@ -1976,7 +1982,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="6"/>
-      <c r="B78" s="10"/>
+      <c r="B78" s="8"/>
       <c r="C78" s="7">
         <v>0</v>
       </c>
@@ -1985,13 +1991,13 @@
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
-      <c r="G78" s="11">
+      <c r="G78" s="9">
         <v>10163.36</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="6"/>
-      <c r="B79" s="10"/>
+      <c r="B79" s="8"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -2000,41 +2006,41 @@
     </row>
     <row r="80" spans="1:7" ht="71.25">
       <c r="A80" s="6"/>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F80" s="7">
         <v>32.21</v>
       </c>
-      <c r="G80" s="11">
-        <v>9197.99</v>
+      <c r="G80" s="9">
+        <v>10249.26</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="42.75">
       <c r="A81" s="6"/>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7">
-        <v>19361.349999999999</v>
+        <v>20412.62</v>
       </c>
       <c r="F81" s="7">
         <v>0.1</v>
       </c>
-      <c r="G81" s="11">
-        <v>2032.94</v>
+      <c r="G81" s="9">
+        <v>2143.3200000000002</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="6"/>
-      <c r="B82" s="10"/>
+      <c r="B82" s="8"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -2045,54 +2051,54 @@
       <c r="A83" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
-      <c r="G83" s="11">
-        <v>21394.29</v>
+      <c r="G83" s="9">
+        <v>22555.94</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="42.75">
       <c r="A84" s="6"/>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F84" s="7">
-        <v>145.34</v>
-      </c>
-      <c r="G84" s="11">
-        <v>20422.97</v>
+        <v>163.96</v>
+      </c>
+      <c r="G84" s="9">
+        <v>28391.15</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="42.75">
       <c r="A85" s="6"/>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F85" s="7">
-        <v>145.34</v>
-      </c>
-      <c r="G85" s="11">
-        <v>21084.03</v>
+        <v>163.96</v>
+      </c>
+      <c r="G85" s="9">
+        <v>23785.18</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="6"/>
-      <c r="B86" s="10"/>
+      <c r="B86" s="8"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
@@ -2103,20 +2109,20 @@
       <c r="A87" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
-      <c r="G87" s="11">
-        <v>41507.01</v>
+      <c r="G87" s="9">
+        <v>52176.33</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="28.5">
       <c r="A88" s="6"/>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C88" s="7"/>
@@ -2129,7 +2135,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="6"/>
-      <c r="B89" s="10"/>
+      <c r="B89" s="8"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -2140,7 +2146,7 @@
       <c r="A90" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B90" s="10" t="s">
+      <c r="B90" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C90" s="7"/>
@@ -2153,24 +2159,24 @@
     </row>
     <row r="91" spans="1:7" ht="28.5">
       <c r="A91" s="6"/>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F91" s="7">
-        <v>109.9</v>
-      </c>
-      <c r="G91" s="11">
-        <v>4146.6099999999997</v>
+        <v>125.64</v>
+      </c>
+      <c r="G91" s="9">
+        <v>5462.97</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="6"/>
-      <c r="B92" s="10"/>
+      <c r="B92" s="8"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
@@ -2181,46 +2187,46 @@
       <c r="A93" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B93" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
-      <c r="G93" s="11">
-        <v>4146.6099999999997</v>
+      <c r="G93" s="9">
+        <v>5462.97</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="85.5">
       <c r="A94" s="6"/>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
-      <c r="G94" s="11">
-        <v>67299.31</v>
+      <c r="G94" s="9">
+        <v>80446.64</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="57">
       <c r="A95" s="6"/>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
-      <c r="G95" s="11">
+      <c r="G95" s="9">
         <v>17741</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="6"/>
-      <c r="B96" s="10"/>
+      <c r="B96" s="8"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
@@ -2231,20 +2237,20 @@
       <c r="A97" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B97" s="10" t="s">
+      <c r="B97" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="7"/>
-      <c r="G97" s="11">
-        <v>85040.31</v>
+      <c r="G97" s="9">
+        <v>98187.64</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="6"/>
-      <c r="B98" s="10"/>
+      <c r="B98" s="8"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
@@ -2253,33 +2259,33 @@
     </row>
     <row r="99" spans="1:7" ht="28.5">
       <c r="A99" s="6"/>
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7">
-        <v>285.58999999999997</v>
+        <v>318.23</v>
       </c>
       <c r="F99" s="7"/>
       <c r="G99" s="6"/>
     </row>
     <row r="100" spans="1:7" ht="28.5">
       <c r="A100" s="6"/>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
       <c r="E100" s="7">
-        <v>37.729999999999997</v>
+        <v>43.48</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="6"/>
     </row>
     <row r="101" spans="1:7" ht="42.75">
       <c r="A101" s="6"/>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C101" s="7"/>
@@ -2292,12 +2298,12 @@
     </row>
     <row r="102" spans="1:7" ht="85.5">
       <c r="A102" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="71.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="42.75">
       <c r="A103" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="85.5">
@@ -2322,39 +2328,39 @@
     </row>
     <row r="108" spans="1:7" ht="28.5">
       <c r="A108" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="57">
       <c r="A109" s="5" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="42.75">
-      <c r="A110" s="19"/>
-      <c r="B110" s="20" t="s">
+      <c r="A110" s="18"/>
+      <c r="B110" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C110" s="21" t="s">
+      <c r="C110" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D110" s="21" t="s">
+      <c r="D110" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E110" s="21" t="s">
+      <c r="E110" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F110" s="21" t="s">
+      <c r="F110" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G110" s="19" t="s">
+      <c r="G110" s="18" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="28.5">
       <c r="A111" s="6"/>
-      <c r="B111" s="10" t="s">
-        <v>56</v>
+      <c r="B111" s="8" t="s">
+        <v>55</v>
       </c>
       <c r="C111" s="7">
         <v>0</v>
@@ -2374,8 +2380,8 @@
     </row>
     <row r="112" spans="1:7" ht="28.5">
       <c r="A112" s="6"/>
-      <c r="B112" s="10" t="s">
-        <v>54</v>
+      <c r="B112" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="C112" s="7">
         <v>0</v>
@@ -2395,8 +2401,8 @@
     </row>
     <row r="113" spans="1:7" ht="28.5">
       <c r="A113" s="6"/>
-      <c r="B113" s="10" t="s">
-        <v>57</v>
+      <c r="B113" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="C113" s="7">
         <v>0</v>
@@ -2416,7 +2422,7 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="6"/>
-      <c r="B114" s="10"/>
+      <c r="B114" s="8"/>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
@@ -2425,7 +2431,7 @@
     </row>
     <row r="115" spans="1:7" ht="28.5">
       <c r="A115" s="6"/>
-      <c r="B115" s="10"/>
+      <c r="B115" s="8"/>
       <c r="C115" s="7" t="s">
         <v>23</v>
       </c>
@@ -2440,7 +2446,7 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="6"/>
-      <c r="B116" s="10"/>
+      <c r="B116" s="8"/>
       <c r="C116" s="7">
         <v>0</v>
       </c>
@@ -2455,7 +2461,7 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="6"/>
-      <c r="B117" s="10"/>
+      <c r="B117" s="8"/>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
@@ -2464,24 +2470,24 @@
     </row>
     <row r="118" spans="1:7" ht="71.25">
       <c r="A118" s="6"/>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F118" s="7">
         <v>32.21</v>
       </c>
-      <c r="G118" s="11">
+      <c r="G118" s="9">
         <v>1088.3499999999999</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="42.75">
       <c r="A119" s="6"/>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C119" s="7"/>
@@ -2498,7 +2504,7 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="6"/>
-      <c r="B120" s="10"/>
+      <c r="B120" s="8"/>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
@@ -2509,54 +2515,54 @@
       <c r="A121" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7"/>
-      <c r="G121" s="11">
+      <c r="G121" s="9">
         <v>1821.56</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="42.75">
       <c r="A122" s="6"/>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F122" s="7">
-        <v>145.34</v>
-      </c>
-      <c r="G122" s="11">
-        <v>2034.94</v>
+        <v>163.96</v>
+      </c>
+      <c r="G122" s="9">
+        <v>2295.64</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="42.75">
       <c r="A123" s="6"/>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
       <c r="E123" s="7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F123" s="7">
-        <v>145.34</v>
-      </c>
-      <c r="G123" s="11">
-        <v>2876.36</v>
+        <v>163.96</v>
+      </c>
+      <c r="G123" s="9">
+        <v>3244.85</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="6"/>
-      <c r="B124" s="10"/>
+      <c r="B124" s="8"/>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
@@ -2567,20 +2573,20 @@
       <c r="A125" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
-      <c r="G125" s="11">
-        <v>4911.3</v>
+      <c r="G125" s="9">
+        <v>5540.5</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="28.5">
       <c r="A126" s="6"/>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C126" s="7"/>
@@ -2593,7 +2599,7 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="6"/>
-      <c r="B127" s="10"/>
+      <c r="B127" s="8"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
@@ -2604,7 +2610,7 @@
       <c r="A128" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C128" s="7"/>
@@ -2617,24 +2623,24 @@
     </row>
     <row r="129" spans="1:7" ht="28.5">
       <c r="A129" s="6"/>
-      <c r="B129" s="10" t="s">
+      <c r="B129" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F129" s="7">
-        <v>109.9</v>
+        <v>125.64</v>
       </c>
       <c r="G129" s="6">
-        <v>677.2</v>
+        <v>672.95</v>
       </c>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="6"/>
-      <c r="B130" s="10"/>
+      <c r="B130" s="8"/>
       <c r="C130" s="7"/>
       <c r="D130" s="7"/>
       <c r="E130" s="7"/>
@@ -2645,7 +2651,7 @@
       <c r="A131" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C131" s="7"/>
@@ -2653,25 +2659,25 @@
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
       <c r="G131" s="6">
-        <v>677.2</v>
+        <v>672.95</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="85.5">
       <c r="A132" s="6"/>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C132" s="7"/>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
-      <c r="G132" s="11">
-        <v>7567.66</v>
+      <c r="G132" s="9">
+        <v>8192.6</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="6"/>
-      <c r="B133" s="10"/>
+      <c r="B133" s="8"/>
       <c r="C133" s="7"/>
       <c r="D133" s="7"/>
       <c r="E133" s="7"/>
@@ -2682,20 +2688,20 @@
       <c r="A134" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C134" s="7"/>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
       <c r="F134" s="7"/>
-      <c r="G134" s="11">
-        <v>7567.66</v>
+      <c r="G134" s="9">
+        <v>8192.6</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="6"/>
-      <c r="B135" s="10"/>
+      <c r="B135" s="8"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
@@ -2704,7 +2710,7 @@
     </row>
     <row r="136" spans="1:7" ht="28.5">
       <c r="A136" s="6"/>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C136" s="7"/>
@@ -2717,20 +2723,20 @@
     </row>
     <row r="137" spans="1:7" ht="28.5">
       <c r="A137" s="6"/>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C137" s="7"/>
       <c r="D137" s="7"/>
       <c r="E137" s="7">
-        <v>6.16</v>
+        <v>5.36</v>
       </c>
       <c r="F137" s="7"/>
       <c r="G137" s="6"/>
     </row>
     <row r="138" spans="1:7" ht="42.75">
       <c r="A138" s="6"/>
-      <c r="B138" s="10" t="s">
+      <c r="B138" s="8" t="s">
         <v>40</v>
       </c>
       <c r="C138" s="7"/>
@@ -2743,12 +2749,12 @@
     </row>
     <row r="139" spans="1:7" ht="85.5">
       <c r="A139" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="71.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="42.75">
       <c r="A140" s="3" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="85.5">
@@ -2773,1537 +2779,1953 @@
     </row>
     <row r="145" spans="1:7" ht="28.5">
       <c r="A145" s="3" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="57">
       <c r="A146" s="5" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="42.75">
-      <c r="A147" s="19"/>
-      <c r="B147" s="20" t="s">
+      <c r="A147" s="18"/>
+      <c r="B147" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C147" s="21" t="s">
+      <c r="C147" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D147" s="21" t="s">
+      <c r="D147" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E147" s="21" t="s">
+      <c r="E147" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F147" s="21" t="s">
+      <c r="F147" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G147" s="19" t="s">
+      <c r="G147" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:7">
+    <row r="148" spans="1:7" ht="28.5">
       <c r="A148" s="6"/>
-      <c r="B148" s="10"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="6"/>
-    </row>
-    <row r="149" spans="1:7" ht="28.5">
+      <c r="B148" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C148" s="7">
+        <v>0</v>
+      </c>
+      <c r="D148" s="7">
+        <v>0</v>
+      </c>
+      <c r="E148" s="7">
+        <v>75</v>
+      </c>
+      <c r="F148" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G148" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="6"/>
-      <c r="B149" s="10"/>
-      <c r="C149" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="B149" s="8"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
       <c r="E149" s="7"/>
       <c r="F149" s="7"/>
-      <c r="G149" s="6" t="s">
+      <c r="G149" s="6"/>
+    </row>
+    <row r="150" spans="1:7" ht="28.5">
+      <c r="A150" s="6"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="150" spans="1:7">
-      <c r="A150" s="6"/>
-      <c r="B150" s="10"/>
-      <c r="C150" s="7">
-        <v>0</v>
-      </c>
-      <c r="D150" s="7">
-        <v>0</v>
+      <c r="D150" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="7"/>
-      <c r="G150" s="6">
-        <v>0</v>
+      <c r="G150" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="6"/>
-      <c r="B151" s="10"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="7">
+        <v>0</v>
+      </c>
+      <c r="D151" s="7">
+        <v>0</v>
+      </c>
       <c r="E151" s="7"/>
       <c r="F151" s="7"/>
-      <c r="G151" s="6"/>
+      <c r="G151" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="6"/>
-      <c r="B152" s="10"/>
+      <c r="B152" s="8"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
       <c r="G152" s="6"/>
     </row>
-    <row r="153" spans="1:7" ht="42.75">
-      <c r="A153" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>27</v>
-      </c>
+    <row r="153" spans="1:7">
+      <c r="A153" s="6"/>
+      <c r="B153" s="8"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
       <c r="F153" s="7"/>
-      <c r="G153" s="6">
-        <v>0</v>
-      </c>
+      <c r="G153" s="6"/>
     </row>
     <row r="154" spans="1:7" ht="42.75">
-      <c r="A154" s="6"/>
-      <c r="B154" s="10" t="s">
-        <v>28</v>
+      <c r="A154" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
-      <c r="E154" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F154" s="7">
-        <v>145.34</v>
-      </c>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
       <c r="G154" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="42.75">
       <c r="A155" s="6"/>
-      <c r="B155" s="10" t="s">
-        <v>29</v>
+      <c r="B155" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F155" s="7">
-        <v>145.34</v>
+        <v>163.96</v>
       </c>
       <c r="G155" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" ht="42.75">
       <c r="A156" s="6"/>
-      <c r="B156" s="10"/>
+      <c r="B156" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
-      <c r="E156" s="7"/>
-      <c r="F156" s="7"/>
-      <c r="G156" s="6"/>
-    </row>
-    <row r="157" spans="1:7" ht="28.5">
-      <c r="A157" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B157" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="E156" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F156" s="7">
+        <v>163.96</v>
+      </c>
+      <c r="G156" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="6"/>
+      <c r="B157" s="8"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
-      <c r="G157" s="6">
-        <v>0</v>
-      </c>
+      <c r="G157" s="6"/>
     </row>
     <row r="158" spans="1:7" ht="28.5">
-      <c r="A158" s="6"/>
-      <c r="B158" s="10" t="s">
-        <v>31</v>
+      <c r="A158" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
       <c r="G158" s="6">
-        <v>458.54</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="28.5">
       <c r="A159" s="6"/>
-      <c r="B159" s="10"/>
+      <c r="B159" s="8" t="s">
+        <v>31</v>
+      </c>
       <c r="C159" s="7"/>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
       <c r="F159" s="7"/>
-      <c r="G159" s="6"/>
-    </row>
-    <row r="160" spans="1:7" ht="42.75">
-      <c r="A160" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B160" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="G159" s="6">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="6"/>
+      <c r="B160" s="8"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
       <c r="F160" s="7"/>
-      <c r="G160" s="6">
-        <v>458.54</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="28.5">
-      <c r="A161" s="6"/>
-      <c r="B161" s="10" t="s">
-        <v>33</v>
+      <c r="G160" s="6"/>
+    </row>
+    <row r="161" spans="1:7" ht="42.75">
+      <c r="A161" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
-      <c r="E161" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F161" s="7">
-        <v>109.9</v>
-      </c>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
       <c r="G161" s="6">
-        <v>43.97</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="28.5">
       <c r="A162" s="6"/>
-      <c r="B162" s="10"/>
+      <c r="B162" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
-      <c r="E162" s="7"/>
-      <c r="F162" s="7"/>
-      <c r="G162" s="6"/>
-    </row>
-    <row r="163" spans="1:7" ht="42.75">
-      <c r="A163" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B163" s="10" t="s">
-        <v>34</v>
-      </c>
+      <c r="E162" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F162" s="7">
+        <v>125.64</v>
+      </c>
+      <c r="G162" s="6">
+        <v>57.33</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="6"/>
+      <c r="B163" s="8"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
       <c r="F163" s="7"/>
-      <c r="G163" s="6">
-        <v>43.97</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="85.5">
-      <c r="A164" s="6"/>
-      <c r="B164" s="10" t="s">
-        <v>35</v>
+      <c r="G163" s="6"/>
+    </row>
+    <row r="164" spans="1:7" ht="42.75">
+      <c r="A164" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
       <c r="G164" s="6">
-        <v>502.51</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7">
+        <v>57.33</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="85.5">
       <c r="A165" s="6"/>
-      <c r="B165" s="10"/>
+      <c r="B165" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="C165" s="7"/>
       <c r="D165" s="7"/>
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
-      <c r="G165" s="6"/>
-    </row>
-    <row r="166" spans="1:7" ht="28.5">
-      <c r="A166" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B166" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="G165" s="6">
+        <v>648.33000000000004</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="6"/>
+      <c r="B166" s="8"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
-      <c r="G166" s="6">
-        <v>502.51</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" s="6"/>
-      <c r="B167" s="10"/>
+      <c r="G166" s="6"/>
+    </row>
+    <row r="167" spans="1:7" ht="28.5">
+      <c r="A167" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>37</v>
+      </c>
       <c r="C167" s="7"/>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
-      <c r="G167" s="6"/>
-    </row>
-    <row r="168" spans="1:7" ht="28.5">
+      <c r="G167" s="6">
+        <v>648.33000000000004</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" s="6"/>
-      <c r="B168" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="B168" s="8"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7"/>
-      <c r="E168" s="7">
-        <v>0</v>
-      </c>
+      <c r="E168" s="7"/>
       <c r="F168" s="7"/>
       <c r="G168" s="6"/>
     </row>
     <row r="169" spans="1:7" ht="28.5">
       <c r="A169" s="6"/>
-      <c r="B169" s="10" t="s">
-        <v>39</v>
+      <c r="B169" s="8" t="s">
+        <v>38</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F169" s="7"/>
       <c r="G169" s="6"/>
     </row>
-    <row r="170" spans="1:7" ht="42.75">
+    <row r="170" spans="1:7" ht="28.5">
       <c r="A170" s="6"/>
-      <c r="B170" s="10" t="s">
-        <v>40</v>
+      <c r="B170" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="C170" s="7"/>
       <c r="D170" s="7"/>
       <c r="E170" s="7">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="F170" s="7"/>
       <c r="G170" s="6"/>
     </row>
-    <row r="171" spans="1:7" ht="85.5">
-      <c r="A171" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="71.25">
+    <row r="171" spans="1:7" ht="42.75">
+      <c r="A171" s="6"/>
+      <c r="B171" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="7">
+        <v>0</v>
+      </c>
+      <c r="F171" s="7"/>
+      <c r="G171" s="6"/>
+    </row>
+    <row r="172" spans="1:7" ht="85.5">
       <c r="A172" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" ht="99.75">
-      <c r="A173" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="42.75">
+      <c r="A173" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="85.5">
       <c r="A174" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" ht="71.25">
-      <c r="A175" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="71.25">
+      <c r="A176" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="28.5">
-      <c r="A176" s="3" t="s">
+    <row r="177" spans="1:7" ht="28.5">
+      <c r="A177" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="57">
-      <c r="A177" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="57">
-      <c r="A178" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B178" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C178" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D178" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E178" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B179" s="12">
-        <v>156351.99</v>
-      </c>
-      <c r="C179" s="7">
-        <v>0</v>
-      </c>
-      <c r="D179" s="7">
-        <v>0</v>
-      </c>
-      <c r="E179" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="28.5">
-      <c r="A180" s="9"/>
-      <c r="B180" s="7" t="s">
+    <row r="178" spans="1:7" ht="28.5">
+      <c r="A178" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="57">
+      <c r="A179" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="42.75">
+      <c r="A180" s="18"/>
+      <c r="B180" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C180" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F180" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="6"/>
+      <c r="B181" s="8"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="6"/>
+    </row>
+    <row r="182" spans="1:7" ht="28.5">
+      <c r="A182" s="6"/>
+      <c r="B182" s="8"/>
+      <c r="C182" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C180" s="7" t="s">
+      <c r="D182" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D180" s="7" t="s">
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E180" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="9"/>
-      <c r="B181" s="12">
-        <v>156351.99</v>
-      </c>
-      <c r="C181" s="7">
-        <v>0</v>
-      </c>
-      <c r="D181" s="7">
-        <v>0</v>
-      </c>
-      <c r="E181" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="9"/>
-      <c r="B182" s="7"/>
-      <c r="C182" s="7"/>
-      <c r="D182" s="7"/>
-      <c r="E182" s="6"/>
-    </row>
-    <row r="183" spans="1:5" ht="42.75">
-      <c r="A183" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B183" s="7"/>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="6"/>
+      <c r="B183" s="8"/>
       <c r="C183" s="7">
         <v>0</v>
       </c>
-      <c r="D183" s="7"/>
-      <c r="E183" s="6"/>
-    </row>
-    <row r="184" spans="1:5" ht="42.75">
-      <c r="A184" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B184" s="7"/>
-      <c r="C184" s="7">
-        <v>1706.6479999999999</v>
-      </c>
+      <c r="D183" s="7">
+        <v>0</v>
+      </c>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="6"/>
+      <c r="B184" s="8"/>
+      <c r="C184" s="7"/>
       <c r="D184" s="7"/>
-      <c r="E184" s="6"/>
-    </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="9"/>
-      <c r="B185" s="7"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="6"/>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="6"/>
+      <c r="B185" s="8"/>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
-      <c r="E185" s="6"/>
-    </row>
-    <row r="186" spans="1:5" ht="71.25">
-      <c r="A186" s="9" t="s">
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="6"/>
+    </row>
+    <row r="186" spans="1:7" ht="42.75">
+      <c r="A186" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
+      <c r="G186" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="42.75">
+      <c r="A187" s="6"/>
+      <c r="B187" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F187" s="7">
+        <v>163.96</v>
+      </c>
+      <c r="G187" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="42.75">
+      <c r="A188" s="6"/>
+      <c r="B188" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F188" s="7">
+        <v>163.96</v>
+      </c>
+      <c r="G188" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="6"/>
+      <c r="B189" s="8"/>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="6"/>
+    </row>
+    <row r="190" spans="1:7" ht="28.5">
+      <c r="A190" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="28.5">
+      <c r="A191" s="6"/>
+      <c r="B191" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="6">
+        <v>458.54</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="6"/>
+      <c r="B192" s="8"/>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="7"/>
+      <c r="G192" s="6"/>
+    </row>
+    <row r="193" spans="1:7" ht="42.75">
+      <c r="A193" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B193" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B186" s="7"/>
-      <c r="C186" s="13">
-        <v>40996.910000000003</v>
-      </c>
-      <c r="D186" s="7"/>
-      <c r="E186" s="6"/>
-    </row>
-    <row r="187" spans="1:5" ht="71.25">
-      <c r="A187" s="9" t="s">
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="6">
+        <v>458.54</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="28.5">
+      <c r="A194" s="6"/>
+      <c r="B194" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
+      <c r="E194" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F194" s="7">
+        <v>125.64</v>
+      </c>
+      <c r="G194" s="6">
+        <v>87.12</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="6"/>
+      <c r="B195" s="8"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
+      <c r="G195" s="6"/>
+    </row>
+    <row r="196" spans="1:7" ht="42.75">
+      <c r="A196" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B196" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B187" s="7"/>
-      <c r="C187" s="13">
-        <v>9915.11</v>
-      </c>
-      <c r="D187" s="7"/>
-      <c r="E187" s="6"/>
-    </row>
-    <row r="188" spans="1:5" ht="85.5">
-      <c r="A188" s="9" t="s">
+      <c r="C196" s="7"/>
+      <c r="D196" s="7"/>
+      <c r="E196" s="7"/>
+      <c r="F196" s="7"/>
+      <c r="G196" s="6">
+        <v>87.12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="85.5">
+      <c r="A197" s="6"/>
+      <c r="B197" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7"/>
+      <c r="G197" s="6">
+        <v>545.66</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="6"/>
+      <c r="B198" s="8"/>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7"/>
+      <c r="G198" s="6"/>
+    </row>
+    <row r="199" spans="1:7" ht="28.5">
+      <c r="A199" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B199" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C199" s="7"/>
+      <c r="D199" s="7"/>
+      <c r="E199" s="7"/>
+      <c r="F199" s="7"/>
+      <c r="G199" s="6">
+        <v>545.66</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="6"/>
+      <c r="B200" s="8"/>
+      <c r="C200" s="7"/>
+      <c r="D200" s="7"/>
+      <c r="E200" s="7"/>
+      <c r="F200" s="7"/>
+      <c r="G200" s="6"/>
+    </row>
+    <row r="201" spans="1:7" ht="28.5">
+      <c r="A201" s="6"/>
+      <c r="B201" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C201" s="7"/>
+      <c r="D201" s="7"/>
+      <c r="E201" s="7">
+        <v>0</v>
+      </c>
+      <c r="F201" s="7"/>
+      <c r="G201" s="6"/>
+    </row>
+    <row r="202" spans="1:7" ht="28.5">
+      <c r="A202" s="6"/>
+      <c r="B202" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C202" s="7"/>
+      <c r="D202" s="7"/>
+      <c r="E202" s="7">
+        <v>0.69</v>
+      </c>
+      <c r="F202" s="7"/>
+      <c r="G202" s="6"/>
+    </row>
+    <row r="203" spans="1:7" ht="42.75">
+      <c r="A203" s="6"/>
+      <c r="B203" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C203" s="7"/>
+      <c r="D203" s="7"/>
+      <c r="E203" s="7">
+        <v>0</v>
+      </c>
+      <c r="F203" s="7"/>
+      <c r="G203" s="6"/>
+    </row>
+    <row r="204" spans="1:7" ht="85.5">
+      <c r="A204" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="42.75">
+      <c r="A205" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="99.75">
+      <c r="A206" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="71.25">
+      <c r="A208" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="28.5">
+      <c r="A209" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="57">
+      <c r="A210" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="57">
+      <c r="A211" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B211" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C211" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B212" s="10">
+        <v>172661.8</v>
+      </c>
+      <c r="C212" s="7">
+        <v>0</v>
+      </c>
+      <c r="D212" s="7">
+        <v>0</v>
+      </c>
+      <c r="E212" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="28.5">
+      <c r="A213" s="12"/>
+      <c r="B213" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E213" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="12"/>
+      <c r="B214" s="10">
+        <v>172661.8</v>
+      </c>
+      <c r="C214" s="7">
+        <v>0</v>
+      </c>
+      <c r="D214" s="7">
+        <v>0</v>
+      </c>
+      <c r="E214" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="12"/>
+      <c r="B215" s="7"/>
+      <c r="C215" s="7"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="6"/>
+    </row>
+    <row r="216" spans="1:5" ht="42.75">
+      <c r="A216" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B216" s="7"/>
+      <c r="C216" s="7">
+        <v>0</v>
+      </c>
+      <c r="D216" s="7"/>
+      <c r="E216" s="6"/>
+    </row>
+    <row r="217" spans="1:5" ht="42.75">
+      <c r="A217" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B217" s="7"/>
+      <c r="C217" s="7">
+        <v>1708.9280000000001</v>
+      </c>
+      <c r="D217" s="7"/>
+      <c r="E217" s="6"/>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="12"/>
+      <c r="B218" s="7"/>
+      <c r="C218" s="7"/>
+      <c r="D218" s="7"/>
+      <c r="E218" s="6"/>
+    </row>
+    <row r="219" spans="1:5" ht="71.25">
+      <c r="A219" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B219" s="7"/>
+      <c r="C219" s="11">
+        <v>42830.17</v>
+      </c>
+      <c r="D219" s="7"/>
+      <c r="E219" s="6"/>
+    </row>
+    <row r="220" spans="1:5" ht="71.25">
+      <c r="A220" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B220" s="7"/>
+      <c r="C220" s="11">
+        <v>11255.67</v>
+      </c>
+      <c r="D220" s="7"/>
+      <c r="E220" s="6"/>
+    </row>
+    <row r="221" spans="1:5" ht="85.5">
+      <c r="A221" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B221" s="7"/>
+      <c r="C221" s="11">
+        <v>172661.8</v>
+      </c>
+      <c r="D221" s="7"/>
+      <c r="E221" s="6"/>
+    </row>
+    <row r="222" spans="1:5" ht="57">
+      <c r="A222" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B222" s="7"/>
+      <c r="C222" s="11">
+        <v>172661.8</v>
+      </c>
+      <c r="D222" s="7"/>
+      <c r="E222" s="6"/>
+    </row>
+    <row r="223" spans="1:5" ht="42.75">
+      <c r="A223" s="12"/>
+      <c r="B223" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B188" s="7"/>
-      <c r="C188" s="13">
-        <v>156351.99</v>
-      </c>
-      <c r="D188" s="7"/>
-      <c r="E188" s="6"/>
-    </row>
-    <row r="189" spans="1:5" ht="57">
-      <c r="A189" s="9" t="s">
+      <c r="C223" s="7">
+        <v>385.15</v>
+      </c>
+      <c r="D223" s="7"/>
+      <c r="E223" s="6"/>
+    </row>
+    <row r="224" spans="1:5" ht="42.75">
+      <c r="A224" s="12"/>
+      <c r="B224" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B189" s="7"/>
-      <c r="C189" s="13">
-        <v>156351.99</v>
-      </c>
-      <c r="D189" s="7"/>
-      <c r="E189" s="6"/>
-    </row>
-    <row r="190" spans="1:5" ht="42.75">
-      <c r="A190" s="9"/>
-      <c r="B190" s="7" t="s">
+      <c r="C224" s="7">
+        <v>89.59</v>
+      </c>
+      <c r="D224" s="7"/>
+      <c r="E224" s="6"/>
+    </row>
+    <row r="225" spans="1:5" ht="57">
+      <c r="A225" s="12"/>
+      <c r="B225" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C190" s="7">
-        <v>352.51</v>
-      </c>
-      <c r="D190" s="7"/>
-      <c r="E190" s="6"/>
-    </row>
-    <row r="191" spans="1:5" ht="42.75">
-      <c r="A191" s="9"/>
-      <c r="B191" s="7" t="s">
+      <c r="C225" s="7">
+        <v>0</v>
+      </c>
+      <c r="D225" s="7"/>
+      <c r="E225" s="6"/>
+    </row>
+    <row r="226" spans="1:5" ht="71.25">
+      <c r="A226" s="12"/>
+      <c r="B226" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C191" s="7">
-        <v>90.22</v>
-      </c>
-      <c r="D191" s="7"/>
-      <c r="E191" s="6"/>
-    </row>
-    <row r="192" spans="1:5" ht="57">
-      <c r="A192" s="9"/>
-      <c r="B192" s="7" t="s">
+      <c r="C226" s="7">
+        <v>0</v>
+      </c>
+      <c r="D226" s="7"/>
+      <c r="E226" s="6"/>
+    </row>
+    <row r="227" spans="1:5" ht="85.5">
+      <c r="A227" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="42.75">
+      <c r="A228" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="85.5">
+      <c r="A229" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C192" s="7">
-        <v>0</v>
-      </c>
-      <c r="D192" s="7"/>
-      <c r="E192" s="6"/>
-    </row>
-    <row r="193" spans="1:5" ht="71.25">
-      <c r="A193" s="9"/>
-      <c r="B193" s="7" t="s">
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C193" s="7">
-        <v>0</v>
-      </c>
-      <c r="D193" s="7"/>
-      <c r="E193" s="6"/>
-    </row>
-    <row r="194" spans="1:5" ht="85.5">
-      <c r="A194" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="71.25">
-      <c r="A195" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="85.5">
-      <c r="A196" s="4" t="s">
+    </row>
+    <row r="231" spans="1:5" ht="71.25">
+      <c r="A231" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="28.5">
+      <c r="A232" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="57">
+      <c r="A233" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="42.75">
+      <c r="A234" s="21" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="4" t="s">
+      <c r="B234" s="20" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" ht="71.25">
-      <c r="A198" s="3" t="s">
+      <c r="C234" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D234" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E234" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="57">
+      <c r="A235" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B235" s="7">
+        <v>0</v>
+      </c>
+      <c r="C235" s="7">
+        <v>687</v>
+      </c>
+      <c r="D235" s="7">
+        <v>0</v>
+      </c>
+      <c r="E235" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="28.5">
+      <c r="A236" s="12"/>
+      <c r="B236" s="7"/>
+      <c r="C236" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D236" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E236" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="28.5">
+      <c r="A237" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B237" s="7"/>
+      <c r="C237" s="7">
+        <v>687</v>
+      </c>
+      <c r="D237" s="7">
+        <v>0</v>
+      </c>
+      <c r="E237" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="42.75">
+      <c r="A238" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B238" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C238" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D238" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E238" s="21"/>
+    </row>
+    <row r="239" spans="1:5" ht="57">
+      <c r="A239" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B239" s="7">
+        <v>12</v>
+      </c>
+      <c r="C239" s="7">
+        <v>12</v>
+      </c>
+      <c r="D239" s="7">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="E239" s="12"/>
+    </row>
+    <row r="240" spans="1:5" ht="42.75">
+      <c r="A240" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B240" s="7">
+        <v>8</v>
+      </c>
+      <c r="C240" s="7">
+        <v>8</v>
+      </c>
+      <c r="D240" s="7">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E240" s="12"/>
+    </row>
+    <row r="241" spans="1:5" ht="42.75" customHeight="1">
+      <c r="A241" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B241" s="7">
+        <v>0</v>
+      </c>
+      <c r="C241" s="7">
+        <v>1135</v>
+      </c>
+      <c r="D241" s="7">
+        <v>0</v>
+      </c>
+      <c r="E241" s="12"/>
+    </row>
+    <row r="242" spans="1:5" ht="42.75" customHeight="1">
+      <c r="A242" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B242" s="7">
+        <v>288</v>
+      </c>
+      <c r="C242" s="7">
+        <v>279</v>
+      </c>
+      <c r="D242" s="7">
+        <v>77.471999999999994</v>
+      </c>
+      <c r="E242" s="12"/>
+    </row>
+    <row r="243" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A243" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B243" s="7">
+        <v>24</v>
+      </c>
+      <c r="C243" s="7">
+        <v>796</v>
+      </c>
+      <c r="D243" s="7">
+        <v>18.623999999999999</v>
+      </c>
+      <c r="E243" s="12"/>
+    </row>
+    <row r="244" spans="1:5" ht="42.75">
+      <c r="A244" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B244" s="7">
+        <v>216</v>
+      </c>
+      <c r="C244" s="7">
+        <v>379</v>
+      </c>
+      <c r="D244" s="7">
+        <v>79.703999999999994</v>
+      </c>
+      <c r="E244" s="12"/>
+    </row>
+    <row r="245" spans="1:5" ht="57">
+      <c r="A245" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B245" s="7">
+        <v>24</v>
+      </c>
+      <c r="C245" s="7">
+        <v>1726</v>
+      </c>
+      <c r="D245" s="7">
+        <v>40.704000000000001</v>
+      </c>
+      <c r="E245" s="12"/>
+    </row>
+    <row r="246" spans="1:5" ht="57">
+      <c r="A246" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B246" s="7">
+        <v>144</v>
+      </c>
+      <c r="C246" s="7">
+        <v>1057</v>
+      </c>
+      <c r="D246" s="7">
+        <v>149.328</v>
+      </c>
+      <c r="E246" s="12"/>
+    </row>
+    <row r="247" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A247" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B247" s="7">
+        <v>216</v>
+      </c>
+      <c r="C247" s="7">
+        <v>567</v>
+      </c>
+      <c r="D247" s="7">
+        <v>120.312</v>
+      </c>
+      <c r="E247" s="12"/>
+    </row>
+    <row r="248" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A248" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B248" s="7">
+        <v>48</v>
+      </c>
+      <c r="C248" s="7">
+        <v>910</v>
+      </c>
+      <c r="D248" s="7">
+        <v>43.2</v>
+      </c>
+      <c r="E248" s="12"/>
+    </row>
+    <row r="249" spans="1:5" ht="42.75">
+      <c r="A249" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B249" s="7">
+        <v>72</v>
+      </c>
+      <c r="C249" s="7">
+        <v>912</v>
+      </c>
+      <c r="D249" s="7">
+        <v>64.944000000000003</v>
+      </c>
+      <c r="E249" s="12"/>
+    </row>
+    <row r="250" spans="1:5" ht="42.75">
+      <c r="A250" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B250" s="7">
+        <v>72</v>
+      </c>
+      <c r="C250" s="7">
+        <v>1579</v>
+      </c>
+      <c r="D250" s="7">
+        <v>111.52800000000001</v>
+      </c>
+      <c r="E250" s="12"/>
+    </row>
+    <row r="251" spans="1:5" ht="42.75">
+      <c r="A251" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B251" s="7">
+        <v>576</v>
+      </c>
+      <c r="C251" s="7">
+        <v>1464</v>
+      </c>
+      <c r="D251" s="7">
+        <v>820.22400000000005</v>
+      </c>
+      <c r="E251" s="12"/>
+    </row>
+    <row r="252" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A252" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B252" s="7">
+        <v>72</v>
+      </c>
+      <c r="C252" s="7">
+        <v>2062</v>
+      </c>
+      <c r="D252" s="7">
+        <v>146.304</v>
+      </c>
+      <c r="E252" s="12"/>
+    </row>
+    <row r="253" spans="1:5" ht="28.5" customHeight="1">
+      <c r="A253" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B253" s="7">
+        <v>24</v>
+      </c>
+      <c r="C253" s="7">
+        <v>110</v>
+      </c>
+      <c r="D253" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="E253" s="12"/>
+    </row>
+    <row r="254" spans="1:5" ht="42.75">
+      <c r="A254" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B254" s="7">
+        <v>48</v>
+      </c>
+      <c r="C254" s="7">
+        <v>726</v>
+      </c>
+      <c r="D254" s="7">
+        <v>33.887999999999998</v>
+      </c>
+      <c r="E254" s="12"/>
+    </row>
+    <row r="255" spans="1:5" ht="28.5">
+      <c r="A255" s="12"/>
+      <c r="B255" s="7"/>
+      <c r="C255" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D255" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E255" s="12"/>
+    </row>
+    <row r="256" spans="1:5" ht="28.5">
+      <c r="A256" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B256" s="7"/>
+      <c r="C256" s="7">
+        <v>13722</v>
+      </c>
+      <c r="D256" s="7">
+        <v>1708.84</v>
+      </c>
+      <c r="E256" s="12"/>
+    </row>
+    <row r="257" spans="1:1" ht="28.5" customHeight="1">
+      <c r="A257" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" ht="28.5" customHeight="1">
+      <c r="A258" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" ht="114">
+      <c r="A259" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" ht="71.25">
+      <c r="A261" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="28.5">
-      <c r="A199" s="3" t="s">
+    <row r="262" spans="1:1" ht="28.5" customHeight="1">
+      <c r="A262" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="57">
-      <c r="A200" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" ht="42.75">
-      <c r="A201" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B201" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C201" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D201" s="21" t="s">
+    <row r="263" spans="1:1" ht="28.5" customHeight="1">
+      <c r="A263" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" ht="156.75">
+      <c r="A264" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" ht="185.25">
+      <c r="A265" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" ht="85.5">
+      <c r="A266" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" ht="42.75" customHeight="1">
+      <c r="A267" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" ht="42.75" customHeight="1">
+      <c r="A268" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" ht="71.25">
+      <c r="A270" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" ht="28.5">
+      <c r="A271" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" ht="28.5">
+      <c r="A272" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="42.75" customHeight="1">
+      <c r="A273" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="42.75" customHeight="1">
+      <c r="A274" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B274" s="24"/>
+      <c r="C274" s="23"/>
+    </row>
+    <row r="275" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A275" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B275" s="15"/>
+      <c r="C275" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B276" s="14">
+        <v>0</v>
+      </c>
+      <c r="C276" s="16"/>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B277" s="14">
+        <v>0</v>
+      </c>
+      <c r="C277" s="16"/>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B278" s="14">
+        <v>0</v>
+      </c>
+      <c r="C278" s="16"/>
+    </row>
+    <row r="279" spans="1:3" ht="28.5">
+      <c r="A279" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B279" s="14">
+        <v>0</v>
+      </c>
+      <c r="C279" s="16"/>
+    </row>
+    <row r="280" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A280" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B280" s="14">
+        <v>0</v>
+      </c>
+      <c r="C280" s="16"/>
+    </row>
+    <row r="281" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A281" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B281" s="15"/>
+      <c r="C281" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B282" s="14">
+        <v>0</v>
+      </c>
+      <c r="C282" s="16"/>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B283" s="14">
+        <v>0</v>
+      </c>
+      <c r="C283" s="16"/>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B284" s="14">
+        <v>0</v>
+      </c>
+      <c r="C284" s="16"/>
+    </row>
+    <row r="285" spans="1:3" ht="28.5">
+      <c r="A285" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B285" s="14">
+        <v>0</v>
+      </c>
+      <c r="C285" s="16"/>
+    </row>
+    <row r="286" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A286" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B286" s="14">
+        <v>0</v>
+      </c>
+      <c r="C286" s="16"/>
+    </row>
+    <row r="287" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A287" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B287" s="15"/>
+      <c r="C287" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B288" s="14">
+        <v>0</v>
+      </c>
+      <c r="C288" s="16"/>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B289" s="14">
+        <v>0</v>
+      </c>
+      <c r="C289" s="16"/>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B290" s="14">
+        <v>0</v>
+      </c>
+      <c r="C290" s="16"/>
+    </row>
+    <row r="291" spans="1:3" ht="28.5">
+      <c r="A291" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B291" s="14">
+        <v>0</v>
+      </c>
+      <c r="C291" s="16"/>
+    </row>
+    <row r="292" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A292" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B292" s="14">
+        <v>0</v>
+      </c>
+      <c r="C292" s="16"/>
+    </row>
+    <row r="293" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A293" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B293" s="15"/>
+      <c r="C293" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B294" s="14">
+        <v>0</v>
+      </c>
+      <c r="C294" s="16"/>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B295" s="14">
+        <v>0</v>
+      </c>
+      <c r="C295" s="16"/>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B296" s="14">
+        <v>0</v>
+      </c>
+      <c r="C296" s="16"/>
+    </row>
+    <row r="297" spans="1:3" ht="28.5">
+      <c r="A297" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B297" s="14">
+        <v>0</v>
+      </c>
+      <c r="C297" s="16"/>
+    </row>
+    <row r="298" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A298" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B298" s="14">
+        <v>0</v>
+      </c>
+      <c r="C298" s="16"/>
+    </row>
+    <row r="299" spans="1:3" ht="28.5" customHeight="1">
+      <c r="A299" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B299" s="15"/>
+      <c r="C299" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B300" s="14">
+        <v>0</v>
+      </c>
+      <c r="C300" s="16"/>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B301" s="14">
+        <v>0</v>
+      </c>
+      <c r="C301" s="16"/>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B302" s="14">
+        <v>0</v>
+      </c>
+      <c r="C302" s="16"/>
+    </row>
+    <row r="303" spans="1:3" ht="28.5">
+      <c r="A303" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B303" s="14">
+        <v>0</v>
+      </c>
+      <c r="C303" s="16"/>
+    </row>
+    <row r="304" spans="1:3" ht="42.75" customHeight="1">
+      <c r="A304" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B304" s="14">
+        <v>0</v>
+      </c>
+      <c r="C304" s="16"/>
+    </row>
+    <row r="305" spans="1:3" ht="42.75" customHeight="1">
+      <c r="A305" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B305" s="15"/>
+      <c r="C305" s="17">
+        <v>27261</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B306" s="13">
+        <v>9520</v>
+      </c>
+      <c r="C306" s="17"/>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B307" s="13">
+        <v>17741</v>
+      </c>
+      <c r="C307" s="17"/>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B308" s="14">
+        <v>0</v>
+      </c>
+      <c r="C308" s="17"/>
+    </row>
+    <row r="309" spans="1:3" ht="28.5">
+      <c r="A309" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B309" s="14">
+        <v>0</v>
+      </c>
+      <c r="C309" s="17"/>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B310" s="14">
+        <v>0</v>
+      </c>
+      <c r="C310" s="17"/>
+    </row>
+    <row r="311" spans="1:3" ht="15" customHeight="1">
+      <c r="A311" s="15"/>
+      <c r="B311" s="15"/>
+      <c r="C311" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="15" customHeight="1">
+      <c r="A312" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B312" s="15"/>
+      <c r="C312" s="17">
+        <v>27261</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="15"/>
+      <c r="B313" s="15"/>
+      <c r="C313" s="17"/>
+    </row>
+    <row r="314" spans="1:3" ht="99.75">
+      <c r="A314" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B314" s="23"/>
+    </row>
+    <row r="315" spans="1:3" ht="85.5">
+      <c r="A315" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B315" s="17">
+        <v>27261</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="12"/>
+      <c r="B316" s="17"/>
+    </row>
+    <row r="317" spans="1:3" ht="85.5">
+      <c r="A317" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="42.75">
+      <c r="A318" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="71.25">
+      <c r="A319" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" ht="71.25">
+      <c r="A321" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" ht="28.5">
+      <c r="A322" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" ht="57">
+      <c r="A323" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" ht="71.25">
+      <c r="A324" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B324" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C324" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D324" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E324" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F324" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="G324" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E201" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" ht="57">
-      <c r="A202" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B202" s="7">
-        <v>0</v>
-      </c>
-      <c r="C202" s="7">
-        <v>687</v>
-      </c>
-      <c r="D202" s="7">
-        <v>0</v>
-      </c>
-      <c r="E202" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" ht="28.5">
-      <c r="A203" s="9"/>
-      <c r="B203" s="7"/>
-      <c r="C203" s="7" t="s">
+    </row>
+    <row r="325" spans="1:7" ht="28.5">
+      <c r="A325" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B325" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C325" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D325" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E325" s="7">
+        <v>120.59</v>
+      </c>
+      <c r="F325" s="7">
+        <v>163.96</v>
+      </c>
+      <c r="G325" s="9">
+        <v>19771.939999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" ht="28.5">
+      <c r="A326" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B326" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C326" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D326" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E326" s="7">
+        <v>214.63</v>
+      </c>
+      <c r="F326" s="7">
+        <v>163.96</v>
+      </c>
+      <c r="G326" s="9">
+        <v>35190.730000000003</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" ht="28.5">
+      <c r="A327" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B327" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C327" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D327" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E327" s="7">
+        <v>49.85</v>
+      </c>
+      <c r="F327" s="7">
+        <v>163.96</v>
+      </c>
+      <c r="G327" s="9">
+        <v>8173.41</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" ht="28.5">
+      <c r="A328" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B328" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C328" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D328" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E328" s="7">
+        <v>0</v>
+      </c>
+      <c r="F328" s="7">
+        <v>163.96</v>
+      </c>
+      <c r="G328" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" ht="28.5">
+      <c r="A329" s="12"/>
+      <c r="B329" s="8"/>
+      <c r="C329" s="8"/>
+      <c r="D329" s="8"/>
+      <c r="E329" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D203" s="7" t="s">
+      <c r="F329" s="7"/>
+      <c r="G329" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E203" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" ht="28.5">
-      <c r="A204" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B204" s="7"/>
-      <c r="C204" s="7">
-        <v>687</v>
-      </c>
-      <c r="D204" s="7">
-        <v>0</v>
-      </c>
-      <c r="E204" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="42.75">
-      <c r="A205" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="B205" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C205" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D205" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E205" s="22"/>
-    </row>
-    <row r="206" spans="1:5" ht="57">
-      <c r="A206" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B206" s="7">
-        <v>12</v>
-      </c>
-      <c r="C206" s="7">
-        <v>12</v>
-      </c>
-      <c r="D206" s="7">
-        <v>0.14399999999999999</v>
-      </c>
-      <c r="E206" s="9"/>
-    </row>
-    <row r="207" spans="1:5" ht="42.75">
-      <c r="A207" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B207" s="7">
-        <v>8</v>
-      </c>
-      <c r="C207" s="7">
-        <v>8</v>
-      </c>
-      <c r="D207" s="7">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="E207" s="9"/>
-    </row>
-    <row r="208" spans="1:5" ht="42.75">
-      <c r="A208" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B208" s="7">
-        <v>288</v>
-      </c>
-      <c r="C208" s="7">
-        <v>279</v>
-      </c>
-      <c r="D208" s="7">
-        <v>77.471999999999994</v>
-      </c>
-      <c r="E208" s="9"/>
-    </row>
-    <row r="209" spans="1:5" ht="57">
-      <c r="A209" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B209" s="7">
-        <v>0</v>
-      </c>
-      <c r="C209" s="7">
-        <v>965</v>
-      </c>
-      <c r="D209" s="7">
-        <v>0</v>
-      </c>
-      <c r="E209" s="9"/>
-    </row>
-    <row r="210" spans="1:5" ht="42.75">
-      <c r="A210" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B210" s="7">
-        <v>24</v>
-      </c>
-      <c r="C210" s="7">
-        <v>1273</v>
-      </c>
-      <c r="D210" s="7">
-        <v>29.832000000000001</v>
-      </c>
-      <c r="E210" s="9"/>
-    </row>
-    <row r="211" spans="1:5" ht="42.75">
-      <c r="A211" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B211" s="7">
-        <v>216</v>
-      </c>
-      <c r="C211" s="7">
-        <v>379</v>
-      </c>
-      <c r="D211" s="7">
-        <v>79.703999999999994</v>
-      </c>
-      <c r="E211" s="9"/>
-    </row>
-    <row r="212" spans="1:5" ht="57">
-      <c r="A212" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B212" s="7">
-        <v>24</v>
-      </c>
-      <c r="C212" s="7">
-        <v>1154</v>
-      </c>
-      <c r="D212" s="7">
-        <v>27.216000000000001</v>
-      </c>
-      <c r="E212" s="9"/>
-    </row>
-    <row r="213" spans="1:5" ht="57">
-      <c r="A213" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B213" s="7">
-        <v>144</v>
-      </c>
-      <c r="C213" s="7">
-        <v>1057</v>
-      </c>
-      <c r="D213" s="7">
-        <v>149.328</v>
-      </c>
-      <c r="E213" s="9"/>
-    </row>
-    <row r="214" spans="1:5" ht="57">
-      <c r="A214" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B214" s="7">
-        <v>216</v>
-      </c>
-      <c r="C214" s="7">
-        <v>567</v>
-      </c>
-      <c r="D214" s="7">
-        <v>120.312</v>
-      </c>
-      <c r="E214" s="9"/>
-    </row>
-    <row r="215" spans="1:5" ht="42.75">
-      <c r="A215" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B215" s="7">
-        <v>48</v>
-      </c>
-      <c r="C215" s="7">
-        <v>910</v>
-      </c>
-      <c r="D215" s="7">
-        <v>43.2</v>
-      </c>
-      <c r="E215" s="9"/>
-    </row>
-    <row r="216" spans="1:5" ht="42.75">
-      <c r="A216" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B216" s="7">
-        <v>72</v>
-      </c>
-      <c r="C216" s="7">
-        <v>912</v>
-      </c>
-      <c r="D216" s="7">
-        <v>64.944000000000003</v>
-      </c>
-      <c r="E216" s="9"/>
-    </row>
-    <row r="217" spans="1:5" ht="42.75">
-      <c r="A217" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B217" s="7">
-        <v>72</v>
-      </c>
-      <c r="C217" s="7">
-        <v>1579</v>
-      </c>
-      <c r="D217" s="7">
-        <v>111.52800000000001</v>
-      </c>
-      <c r="E217" s="9"/>
-    </row>
-    <row r="218" spans="1:5" ht="42.75">
-      <c r="A218" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B218" s="7">
-        <v>576</v>
-      </c>
-      <c r="C218" s="7">
-        <v>1464</v>
-      </c>
-      <c r="D218" s="7">
-        <v>820.22400000000005</v>
-      </c>
-      <c r="E218" s="9"/>
-    </row>
-    <row r="219" spans="1:5" ht="57">
-      <c r="A219" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B219" s="7">
-        <v>72</v>
-      </c>
-      <c r="C219" s="7">
-        <v>2062</v>
-      </c>
-      <c r="D219" s="7">
-        <v>146.304</v>
-      </c>
-      <c r="E219" s="9"/>
-    </row>
-    <row r="220" spans="1:5" ht="42.75">
-      <c r="A220" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B220" s="7">
-        <v>24</v>
-      </c>
-      <c r="C220" s="7">
-        <v>110</v>
-      </c>
-      <c r="D220" s="7">
-        <v>2.4</v>
-      </c>
-      <c r="E220" s="9"/>
-    </row>
-    <row r="221" spans="1:5" ht="42.75">
-      <c r="A221" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B221" s="7">
-        <v>48</v>
-      </c>
-      <c r="C221" s="7">
-        <v>726</v>
-      </c>
-      <c r="D221" s="7">
-        <v>33.887999999999998</v>
-      </c>
-      <c r="E221" s="9"/>
-    </row>
-    <row r="222" spans="1:5" ht="28.5">
-      <c r="A222" s="9"/>
-      <c r="B222" s="7"/>
-      <c r="C222" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D222" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E222" s="9"/>
-    </row>
-    <row r="223" spans="1:5" ht="28.5">
-      <c r="A223" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="B223" s="7"/>
-      <c r="C223" s="7">
-        <v>13457</v>
-      </c>
-      <c r="D223" s="7">
-        <v>1706.56</v>
-      </c>
-      <c r="E223" s="9"/>
-    </row>
-    <row r="224" spans="1:5" ht="85.5">
-      <c r="A224" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" ht="71.25">
-      <c r="A225" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" ht="114">
-      <c r="A226" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" ht="71.25">
-      <c r="A228" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" ht="28.5">
-      <c r="A229" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" ht="57">
-      <c r="A230" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" ht="156.75">
-      <c r="A231" s="23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" ht="185.25">
-      <c r="A232" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" ht="85.5">
-      <c r="A233" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" ht="71.25">
-      <c r="A234" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" ht="57">
-      <c r="A235" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" ht="71.25">
-      <c r="A237" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1" ht="28.5">
-      <c r="A238" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1" ht="28.5">
-      <c r="A239" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1" ht="57">
-      <c r="A240" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="241" spans="1:3" ht="42.75" customHeight="1">
-      <c r="A241" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B241" s="25"/>
-      <c r="C241" s="24"/>
-    </row>
-    <row r="242" spans="1:3" ht="42.75" customHeight="1">
-      <c r="A242" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B242" s="16"/>
-      <c r="C242" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A243" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B243" s="14">
-        <v>0</v>
-      </c>
-      <c r="C243" s="17"/>
-    </row>
-    <row r="244" spans="1:3">
-      <c r="A244" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B244" s="14">
-        <v>0</v>
-      </c>
-      <c r="C244" s="17"/>
-    </row>
-    <row r="245" spans="1:3">
-      <c r="A245" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B245" s="14">
-        <v>0</v>
-      </c>
-      <c r="C245" s="17"/>
-    </row>
-    <row r="246" spans="1:3">
-      <c r="A246" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B246" s="14">
-        <v>0</v>
-      </c>
-      <c r="C246" s="17"/>
-    </row>
-    <row r="247" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A247" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B247" s="16"/>
-      <c r="C247" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A248" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B248" s="14">
-        <v>0</v>
-      </c>
-      <c r="C248" s="17"/>
-    </row>
-    <row r="249" spans="1:3">
-      <c r="A249" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B249" s="14">
-        <v>0</v>
-      </c>
-      <c r="C249" s="17"/>
-    </row>
-    <row r="250" spans="1:3">
-      <c r="A250" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B250" s="14">
-        <v>0</v>
-      </c>
-      <c r="C250" s="17"/>
-    </row>
-    <row r="251" spans="1:3">
-      <c r="A251" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B251" s="14">
-        <v>0</v>
-      </c>
-      <c r="C251" s="17"/>
-    </row>
-    <row r="252" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A252" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B252" s="16"/>
-      <c r="C252" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A253" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B253" s="14">
-        <v>0</v>
-      </c>
-      <c r="C253" s="17"/>
-    </row>
-    <row r="254" spans="1:3">
-      <c r="A254" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B254" s="14">
-        <v>0</v>
-      </c>
-      <c r="C254" s="17"/>
-    </row>
-    <row r="255" spans="1:3">
-      <c r="A255" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B255" s="14">
-        <v>0</v>
-      </c>
-      <c r="C255" s="17"/>
-    </row>
-    <row r="256" spans="1:3">
-      <c r="A256" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B256" s="14">
-        <v>0</v>
-      </c>
-      <c r="C256" s="17"/>
-    </row>
-    <row r="257" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A257" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B257" s="16"/>
-      <c r="C257" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A258" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B258" s="14">
-        <v>0</v>
-      </c>
-      <c r="C258" s="17"/>
-    </row>
-    <row r="259" spans="1:3">
-      <c r="A259" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B259" s="14">
-        <v>0</v>
-      </c>
-      <c r="C259" s="17"/>
-    </row>
-    <row r="260" spans="1:3">
-      <c r="A260" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B260" s="14">
-        <v>0</v>
-      </c>
-      <c r="C260" s="17"/>
-    </row>
-    <row r="261" spans="1:3">
-      <c r="A261" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B261" s="14">
-        <v>0</v>
-      </c>
-      <c r="C261" s="17"/>
-    </row>
-    <row r="262" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A262" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B262" s="16"/>
-      <c r="C262" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" ht="28.5" customHeight="1">
-      <c r="A263" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B263" s="14">
-        <v>0</v>
-      </c>
-      <c r="C263" s="17"/>
-    </row>
-    <row r="264" spans="1:3">
-      <c r="A264" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B264" s="14">
-        <v>0</v>
-      </c>
-      <c r="C264" s="17"/>
-    </row>
-    <row r="265" spans="1:3">
-      <c r="A265" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B265" s="14">
-        <v>0</v>
-      </c>
-      <c r="C265" s="17"/>
-    </row>
-    <row r="266" spans="1:3">
-      <c r="A266" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B266" s="14">
-        <v>0</v>
-      </c>
-      <c r="C266" s="17"/>
-    </row>
-    <row r="267" spans="1:3" ht="42.75" customHeight="1">
-      <c r="A267" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B267" s="16"/>
-      <c r="C267" s="18">
-        <v>27261</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" ht="42.75" customHeight="1">
-      <c r="A268" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B268" s="15">
-        <v>9520</v>
-      </c>
-      <c r="C268" s="18"/>
-    </row>
-    <row r="269" spans="1:3">
-      <c r="A269" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B269" s="15">
-        <v>17741</v>
-      </c>
-      <c r="C269" s="18"/>
-    </row>
-    <row r="270" spans="1:3">
-      <c r="A270" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B270" s="14">
-        <v>0</v>
-      </c>
-      <c r="C270" s="18"/>
-    </row>
-    <row r="271" spans="1:3">
-      <c r="A271" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B271" s="14">
-        <v>0</v>
-      </c>
-      <c r="C271" s="18"/>
-    </row>
-    <row r="272" spans="1:3" ht="28.5">
-      <c r="A272" s="16"/>
-      <c r="B272" s="16"/>
-      <c r="C272" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" ht="15" customHeight="1">
-      <c r="A273" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B273" s="16"/>
-      <c r="C273" s="18">
-        <v>27261</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" ht="15" customHeight="1">
-      <c r="A274" s="16"/>
-      <c r="B274" s="16"/>
-      <c r="C274" s="18"/>
-    </row>
-    <row r="275" spans="1:7" ht="99.75">
-      <c r="A275" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B275" s="24"/>
-    </row>
-    <row r="276" spans="1:7" ht="85.5">
-      <c r="A276" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B276" s="18">
-        <v>27261</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7">
-      <c r="A277" s="9"/>
-      <c r="B277" s="18"/>
-    </row>
-    <row r="278" spans="1:7" ht="85.5">
-      <c r="A278" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" ht="71.25">
-      <c r="A279" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" ht="71.25">
-      <c r="A280" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7">
-      <c r="A281" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" ht="71.25">
-      <c r="A282" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" ht="28.5">
-      <c r="A283" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" ht="57">
-      <c r="A284" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" ht="71.25">
-      <c r="A285" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="B285" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C285" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D285" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="E285" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="F285" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="G285" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" ht="28.5">
-      <c r="A286" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B286" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="C286" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D286" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E286" s="7">
-        <v>120.59</v>
-      </c>
-      <c r="F286" s="7">
-        <v>145.34</v>
-      </c>
-      <c r="G286" s="11">
-        <v>17526.55</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" ht="28.5">
-      <c r="A287" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B287" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C287" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D287" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E287" s="7">
-        <v>181.98</v>
-      </c>
-      <c r="F287" s="7">
-        <v>145.34</v>
-      </c>
-      <c r="G287" s="11">
-        <v>26448.97</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" ht="28.5">
-      <c r="A288" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B288" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C288" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D288" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E288" s="7">
-        <v>49.85</v>
-      </c>
-      <c r="F288" s="7">
-        <v>145.34</v>
-      </c>
-      <c r="G288" s="11">
-        <v>7245.2</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" ht="28.5">
-      <c r="A289" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B289" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C289" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D289" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="E289" s="7">
-        <v>0</v>
-      </c>
-      <c r="F289" s="7">
-        <v>145.34</v>
-      </c>
-      <c r="G289" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" ht="28.5">
-      <c r="A290" s="9"/>
-      <c r="B290" s="10"/>
-      <c r="C290" s="10"/>
-      <c r="D290" s="10"/>
-      <c r="E290" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F290" s="7"/>
-      <c r="G290" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7">
-      <c r="A291" s="9"/>
-      <c r="B291" s="10"/>
-      <c r="C291" s="10"/>
-      <c r="D291" s="10"/>
-      <c r="E291" s="7">
-        <v>352.42</v>
-      </c>
-      <c r="F291" s="7"/>
-      <c r="G291" s="11">
-        <v>51234.14</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7">
-      <c r="A292" s="8"/>
-      <c r="B292" s="10"/>
-      <c r="C292" s="10"/>
-      <c r="D292" s="10"/>
-      <c r="E292" s="7">
-        <v>326.49</v>
-      </c>
-      <c r="F292" s="7"/>
-      <c r="G292" s="11">
-        <v>47470.78</v>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="12"/>
+      <c r="B330" s="8"/>
+      <c r="C330" s="8"/>
+      <c r="D330" s="8"/>
+      <c r="E330" s="7">
+        <v>385.07</v>
+      </c>
+      <c r="F330" s="7"/>
+      <c r="G330" s="9">
+        <v>63149.53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A241:B241"/>
-    <mergeCell ref="C242:C246"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="C247:C251"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="C252:C256"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="C257:C261"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="C262:C266"/>
-    <mergeCell ref="A267:B267"/>
-    <mergeCell ref="C267:C271"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="C273:C274"/>
-    <mergeCell ref="B276:B277"/>
-    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="A313:B313"/>
+    <mergeCell ref="C312:C313"/>
+    <mergeCell ref="B315:B316"/>
+    <mergeCell ref="A312:B312"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="C299:C304"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="C305:C310"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="C287:C292"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="C293:C298"/>
+    <mergeCell ref="A311:B311"/>
     <mergeCell ref="A274:B274"/>
-    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="A275:B275"/>
+    <mergeCell ref="C275:C280"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="C281:C286"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
